--- a/Applications/case.xlsx
+++ b/Applications/case.xlsx
@@ -1,51 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Teste\MOGESTpy\Applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\MOGESTpy\Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7693FB6-F3CA-4B24-92F6-92F735C73F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6070EF8-1D59-46EA-B0E6-8D03F204F7DC}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12405"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Params" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ottocod</t>
-  </si>
-  <si>
-    <t>area_km2</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>kkt</t>
   </si>
@@ -53,32 +33,67 @@
     <t>k2t</t>
   </si>
   <si>
-    <t>crec</t>
-  </si>
-  <si>
-    <t>tuin</t>
-  </si>
-  <si>
-    <t>ebin</t>
-  </si>
-  <si>
-    <t>capc</t>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Crec</t>
+  </si>
+  <si>
+    <t>Capc</t>
+  </si>
+  <si>
+    <t>Tuin</t>
+  </si>
+  <si>
+    <t>Ebin</t>
+  </si>
+  <si>
+    <t>Bacia</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Bmax</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>Nw</t>
+  </si>
+  <si>
+    <t>Kw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,10 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,119 +435,562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0684730E-9735-4B9F-8D59-B3055531BFA4}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>86492</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4512.525952</v>
+      </c>
+      <c r="C2" s="3">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>86491</v>
-      </c>
-      <c r="B2">
-        <v>1588.171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="3">
+        <v>115</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.2611947862385782</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>86492</v>
-      </c>
-      <c r="B3">
-        <v>4511.759</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
         <v>86493</v>
       </c>
-      <c r="B4">
-        <v>1771.567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B3" s="1">
+        <v>1772.08521</v>
+      </c>
+      <c r="C3" s="3">
+        <v>500</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>115</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2.1666241586229198</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>86494</v>
       </c>
-      <c r="B5">
-        <v>1373.761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B4" s="1">
+        <v>1374.8873579999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>500</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>115</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.5753683220790452</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>86495</v>
       </c>
-      <c r="B6">
-        <v>1289.223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B5" s="1">
+        <v>1290.3208320000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>115</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.59127493614342208</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>86496</v>
       </c>
-      <c r="B7">
-        <v>2841.915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B6" s="1">
+        <v>2845.984117</v>
+      </c>
+      <c r="C6" s="3">
+        <v>500</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>115</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.4024765884205378</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>86497</v>
       </c>
-      <c r="B8" s="2">
-        <v>163.47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B7" s="1">
+        <v>163.5925215</v>
+      </c>
+      <c r="C7" s="3">
+        <v>500</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>115</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4.1919559247984175</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>86498</v>
       </c>
-      <c r="B9">
-        <v>2605.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B8" s="1">
+        <v>2609.5734600000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>115</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.0589802713450083</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>86499</v>
       </c>
-      <c r="B10">
-        <v>3197.529</v>
-      </c>
+      <c r="B9" s="1">
+        <v>3201.2426449999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>115</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7.0992382698872744E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.9789833989693255</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Applications/case.xlsx
+++ b/Applications/case.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12405"/>
+    <workbookView xWindow="29280" yWindow="495" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,10 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -436,561 +432,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>86492</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>4512.525952</v>
       </c>
-      <c r="C2" s="3">
-        <v>500</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>115</v>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>7.0992382698872744E-2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.25</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>1.2611947862385782</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>0.01</v>
       </c>
-      <c r="O2" s="2">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>0.9</v>
       </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2"/>
+      <c r="Q2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>86493</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1772.08521</v>
       </c>
-      <c r="C3" s="3">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
+      <c r="I3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>115</v>
-      </c>
-      <c r="I3" s="3">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3">
-        <v>7.0992382698872744E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.25</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3">
         <v>2.1666241586229198</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>0.01</v>
       </c>
-      <c r="O3" s="2">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
         <v>0.9</v>
       </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2"/>
+      <c r="Q3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>86494</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1374.8873579999999</v>
       </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="I4">
         <v>0.5</v>
       </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>115</v>
-      </c>
-      <c r="I4" s="3">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3">
-        <v>7.0992382698872744E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.25</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4">
         <v>0.5753683220790452</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>0.01</v>
       </c>
-      <c r="O4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2"/>
+      <c r="Q4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>86495</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1290.3208320000001</v>
       </c>
-      <c r="C5" s="3">
-        <v>500</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>115</v>
-      </c>
-      <c r="I5" s="3">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3">
-        <v>7.0992382698872744E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="C5">
+        <v>616.42399999999998</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>48.140999999999998</v>
+      </c>
+      <c r="F5">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="G5">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="H5">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J5">
+        <v>1.08236</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.25</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5">
         <v>0.59127493614342208</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>0.01</v>
       </c>
-      <c r="O5" s="2">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
         <v>0.9</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2"/>
+      <c r="Q5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>86496</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>2845.984117</v>
       </c>
-      <c r="C6" s="3">
-        <v>500</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>115</v>
-      </c>
-      <c r="I6" s="3">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3">
-        <v>7.0992382698872744E-2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>32.32</v>
+      </c>
+      <c r="F6">
+        <v>16.539120750691801</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>77.7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.25</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6">
         <v>0.4024765884205378</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>0.01</v>
       </c>
-      <c r="O6" s="2">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
         <v>0.9</v>
       </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2"/>
+      <c r="Q6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>86497</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>163.5925215</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>115</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>7.0992382698872744E-2</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.25</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7">
         <v>4.1919559247984175</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>0.01</v>
       </c>
-      <c r="O7" s="2">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2"/>
+      <c r="Q7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>86498</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>2609.5734600000001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>500</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>115</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>7.0992382698872744E-2</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.25</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8">
         <v>2.0589802713450083</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>0.01</v>
       </c>
-      <c r="O8" s="2">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
         <v>0.9</v>
       </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2"/>
+      <c r="Q8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>86499</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>3201.2426449999998</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>500</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9">
+        <v>0.6</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>115</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9">
         <v>7.0992382698872744E-2</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.25</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>4.9789833989693255</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>0.01</v>
       </c>
-      <c r="O9" s="2">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
         <v>0.9</v>
       </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="Q9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Applications/case.xlsx
+++ b/Applications/case.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\MOGESTpy\Applications\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="29280" yWindow="495" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="Params" sheetId="1" r:id="rId1"/>
+    <sheet name="Params" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +88,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +234,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -424,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,17 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -922,7 +922,10 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>